--- a/train_graph_table.xlsx
+++ b/train_graph_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,192 +581,1859 @@
         <v>0.8593406593406593</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M2" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="P2" t="n">
-        <v>0.843956043956044</v>
+        <v>0.8483516483516483</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8505494505494505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>try=2</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8879120879120879</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="P3" t="n">
-        <v>0.843956043956044</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.865934065934066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>try=3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>try=4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8791208791208791</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>try=5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8989010989010989</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8747252747252747</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8791208791208791</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8835164835164835</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8791208791208791</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8769230769230769</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8747252747252747</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8747252747252747</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8747252747252747</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>try=6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8769230769230769</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>try=7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9054945054945055</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>try=8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.843956043956044</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>try=9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8923076923076924</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8747252747252747</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8769230769230769</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8791208791208791</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8791208791208791</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.8747252747252747</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>try=10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>try=11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8747252747252747</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>try=12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8835164835164835</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>try=13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9032967032967033</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8747252747252747</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8703296703296703</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8725274725274725</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>try=14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8923076923076924</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>try=15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8879120879120879</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>try=16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8879120879120879</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8747252747252747</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>try=17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8901098901098901</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.843956043956044</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>try=18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8791208791208791</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>try=19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.8417582417582418</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8417582417582418</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.8417582417582418</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.8483516483516483</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>try=20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8945054945054945</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8791208791208791</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8769230769230769</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8863736263736264</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8578021978021979</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.861868131868132</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8610989010989012</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8636263736263737</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8634065934065935</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8623076923076924</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8612087912087913</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.858791208791209</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8586813186813188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8601098901098903</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8603296703296704</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.8586813186813188</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8575824175824177</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.8579120879120881</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8580219780219782</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8593406593406595</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.8574725274725277</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.8580219780219782</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.8576923076923079</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.8579120879120881</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.8580219780219782</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.8583516483516485</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.8576923076923079</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.858791208791209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
           <t>std</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.010187046840218</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.007134176332913548</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.009758132336466231</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.008951687387565695</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.009892680085031174</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.005977605197596639</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.007852581315908333</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.008231920096896368</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.007090388778244096</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.00852995259470412</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.007884889953967685</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.007629254926465861</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.007716231491082717</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.006597261259969976</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.007350931190980874</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.006232660628544179</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.006727005829288034</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.00666149535563955</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.007250819099781463</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.006087179164664595</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.007140409777818685</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.00666626412663875</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.006669123752476989</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.005831210217730101</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.006759993095972769</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/train_graph_table.xlsx
+++ b/train_graph_table.xlsx
@@ -575,79 +575,79 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8879120879120879</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.843956043956044</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="O2" t="n">
         <v>0.8549450549450549</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="Q2" t="n">
         <v>0.8549450549450549</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="T2" t="n">
         <v>0.8505494505494505</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8549450549450549</v>
       </c>
     </row>
     <row r="3">
@@ -660,79 +660,79 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8725274725274725</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="F3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="N3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="O3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="P3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8373626373626374</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8373626373626374</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="S3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="T3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="U3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="V3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8527472527472527</v>
       </c>
     </row>
     <row r="4">
@@ -745,19 +745,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.8835164835164835</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="H4" t="n">
         <v>0.8637362637362638</v>
@@ -766,55 +766,55 @@
         <v>0.8681318681318682</v>
       </c>
       <c r="J4" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="K4" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8483516483516483</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V4" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="X4" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="AA4" t="n">
         <v>0.8615384615384616</v>
@@ -833,76 +833,76 @@
         <v>0.8791208791208791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.865934065934066</v>
       </c>
     </row>
     <row r="6">
@@ -915,79 +915,79 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8989010989010989</v>
+        <v>0.8813186813186813</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="E6" t="n">
         <v>0.8747252747252747</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8835164835164835</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8769230769230769</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8747252747252747</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="K6" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8637362637362638</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.8703296703296703</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.8747252747252747</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8725274725274725</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.8747252747252747</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.8703296703296703</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.8703296703296703</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.8725274725274725</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.8725274725274725</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.8725274725274725</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.8681318681318682</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.8681318681318682</v>
-      </c>
       <c r="V6" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8725274725274725</v>
+        <v>0.8637362637362638</v>
       </c>
     </row>
     <row r="7">
@@ -1003,76 +1003,76 @@
         <v>0.8769230769230769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8373626373626374</v>
       </c>
       <c r="H7" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8417582417582418</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8417582417582418</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8395604395604396</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8395604395604396</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8417582417582418</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.843956043956044</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8395604395604396</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8417582417582418</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8417582417582418</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8417582417582418</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8417582417582418</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8351648351648352</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8417582417582418</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8417582417582418</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8395604395604396</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.843956043956044</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.843956043956044</v>
       </c>
     </row>
     <row r="8">
@@ -1085,79 +1085,79 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9054945054945055</v>
+        <v>0.8835164835164835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E8" t="n">
         <v>0.865934065934066</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="G8" t="n">
         <v>0.8637362637362638</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8725274725274725</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="J8" t="n">
         <v>0.8637362637362638</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="N8" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="T8" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="V8" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8593406593406593</v>
       </c>
     </row>
     <row r="9">
@@ -1170,79 +1170,79 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8747252747252747</v>
       </c>
       <c r="E9" t="n">
-        <v>0.843956043956044</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="X9" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8681318681318682</v>
       </c>
     </row>
     <row r="10">
@@ -1255,79 +1255,79 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="D10" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8747252747252747</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8769230769230769</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="K10" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L10" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8483516483516483</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8725274725274725</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8725274725274725</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8747252747252747</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8725274725274725</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8527472527472527</v>
       </c>
     </row>
     <row r="11">
@@ -1340,79 +1340,79 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="E11" t="n">
         <v>0.8703296703296703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8747252747252747</v>
       </c>
       <c r="G11" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="H11" t="n">
         <v>0.8637362637362638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="J11" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="K11" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="L11" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="M11" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="O11" t="n">
         <v>0.8615384615384616</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="W11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.865934065934066</v>
       </c>
     </row>
     <row r="12">
@@ -1425,79 +1425,79 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8747252747252747</v>
+        <v>0.8835164835164835</v>
       </c>
       <c r="D12" t="n">
         <v>0.8505494505494505</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8483516483516483</v>
       </c>
       <c r="K12" t="n">
         <v>0.8483516483516483</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.843956043956044</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.843956043956044</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8483516483516483</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.843956043956044</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.843956043956044</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.843956043956044</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="W12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="13">
@@ -1510,73 +1510,73 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8835164835164835</v>
+        <v>0.8945054945054945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8483516483516483</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="F13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.843956043956044</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.865934065934066</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="R13" t="n">
         <v>0.8483516483516483</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.8483516483516483</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.8527472527472527</v>
-      </c>
       <c r="S13" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="W13" t="n">
         <v>0.8483516483516483</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="Z13" t="n">
         <v>0.8549450549450549</v>
@@ -1595,79 +1595,79 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9032967032967033</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="E14" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8725274725274725</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8747252747252747</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="J14" t="n">
         <v>0.8681318681318682</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="M14" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8725274725274725</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="O14" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="V14" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="W14" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="X14" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.865934065934066</v>
       </c>
     </row>
     <row r="15">
@@ -1680,79 +1680,79 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="H15" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="T15" t="n">
         <v>0.8615384615384616</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="V15" t="n">
         <v>0.8593406593406593</v>
       </c>
       <c r="W15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
     </row>
     <row r="16">
@@ -1765,79 +1765,79 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8879120879120879</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="G16" t="n">
+        <v>0.8593406593406593</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8549450549450549</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="T16" t="n">
         <v>0.8483516483516483</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.8593406593406593</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="U16" t="n">
+        <v>0.8505494505494505</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.8527472527472527</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X16" t="n">
         <v>0.8483516483516483</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.8505494505494505</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.8549450549450549</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.8483516483516483</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.8527472527472527</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.8527472527472527</v>
-      </c>
       <c r="Y16" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8549450549450549</v>
       </c>
     </row>
     <row r="17">
@@ -1850,28 +1850,28 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8879120879120879</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8747252747252747</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="J17" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="K17" t="n">
         <v>0.8637362637362638</v>
@@ -1880,49 +1880,49 @@
         <v>0.8615384615384616</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="T17" t="n">
         <v>0.8637362637362638</v>
       </c>
       <c r="U17" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="W17" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="X17" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.865934065934066</v>
       </c>
     </row>
     <row r="18">
@@ -1935,25 +1935,25 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8901098901098901</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="D18" t="n">
-        <v>0.843956043956044</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="E18" t="n">
         <v>0.8483516483516483</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="J18" t="n">
         <v>0.8549450549450549</v>
@@ -1965,49 +1965,49 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="R18" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="W18" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="X18" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="19">
@@ -2020,16 +2020,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.9010989010989011</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.865934065934066</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G19" t="n">
         <v>0.8637362637362638</v>
@@ -2038,61 +2038,61 @@
         <v>0.865934065934066</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="N19" t="n">
         <v>0.8593406593406593</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8549450549450549</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="S19" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="U19" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="W19" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="X19" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="Y19" t="n">
         <v>0.8615384615384616</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8615384615384616</v>
       </c>
     </row>
     <row r="20">
@@ -2105,79 +2105,79 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8747252747252747</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8835164835164835</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8747252747252747</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8417582417582418</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8417582417582418</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8417582417582418</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="W20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8703296703296703</v>
       </c>
       <c r="X20" t="n">
-        <v>0.8505494505494505</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8483516483516483</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8725274725274725</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.8527472527472527</v>
+        <v>0.8725274725274725</v>
       </c>
     </row>
     <row r="21">
@@ -2190,79 +2190,79 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8945054945054945</v>
+        <v>0.8791208791208791</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.843956043956044</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="G21" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="H21" t="n">
         <v>0.865934065934066</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8769230769230769</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8483516483516483</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8593406593406593</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8505494505494505</v>
       </c>
       <c r="O21" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="R21" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="U21" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8527472527472527</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="W21" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="X21" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8549450549450549</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8527472527472527</v>
       </c>
     </row>
     <row r="22">
@@ -2275,79 +2275,79 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8863736263736264</v>
+        <v>0.8851648351648352</v>
       </c>
       <c r="D22" t="n">
+        <v>0.8605494505494506</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8594505494505496</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.860879120879121</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8602197802197804</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8626373626373628</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8619780219780221</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8604395604395606</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8582417582417584</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8582417582417584</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8591208791208793</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8594505494505496</v>
+      </c>
+      <c r="O22" t="n">
         <v>0.8578021978021979</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.861868131868132</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.8610989010989012</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.8636263736263737</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.8634065934065935</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.8623076923076924</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.8612087912087913</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="P22" t="n">
+        <v>0.8579120879120881</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.8576923076923079</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8584615384615386</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8582417582417584</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.8584615384615386</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.8593406593406595</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.8574725274725277</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.8582417582417584</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.8579120879120881</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.8581318681318683</v>
+      </c>
+      <c r="Z22" t="n">
         <v>0.858791208791209</v>
       </c>
-      <c r="L22" t="n">
-        <v>0.8586813186813188</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8601098901098903</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.8603296703296704</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.8586813186813188</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.8575824175824177</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.8579120879120881</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.8580219780219782</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.8593406593406595</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.8574725274725277</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.8580219780219782</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.8576923076923079</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.8579120879120881</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.8580219780219782</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.8583516483516485</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.8576923076923079</v>
-      </c>
       <c r="AA22" t="n">
-        <v>0.858791208791209</v>
+        <v>0.8592307692307694</v>
       </c>
     </row>
     <row r="23">
@@ -2360,79 +2360,79 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.010187046840218</v>
+        <v>0.007161740399728622</v>
       </c>
       <c r="D23" t="n">
-        <v>0.007134176332913548</v>
+        <v>0.006930830070665951</v>
       </c>
       <c r="E23" t="n">
-        <v>0.009758132336466231</v>
+        <v>0.01272519581112511</v>
       </c>
       <c r="F23" t="n">
-        <v>0.008951687387565695</v>
+        <v>0.008706941417470681</v>
       </c>
       <c r="G23" t="n">
-        <v>0.009892680085031174</v>
+        <v>0.01075281145831189</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005977605197596639</v>
+        <v>0.007762220506562245</v>
       </c>
       <c r="I23" t="n">
-        <v>0.007852581315908333</v>
+        <v>0.008394762538831844</v>
       </c>
       <c r="J23" t="n">
-        <v>0.008231920096896368</v>
+        <v>0.007529467003042172</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007090388778244096</v>
+        <v>0.007112763048996296</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00852995259470412</v>
+        <v>0.008051594473242283</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007884889953967685</v>
+        <v>0.008759340735527784</v>
       </c>
       <c r="N23" t="n">
-        <v>0.007629254926465861</v>
+        <v>0.008082321350836828</v>
       </c>
       <c r="O23" t="n">
-        <v>0.007716231491082717</v>
+        <v>0.007482047485907976</v>
       </c>
       <c r="P23" t="n">
-        <v>0.006597261259969976</v>
+        <v>0.008913977929966276</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.007350931190980874</v>
+        <v>0.009773751605904692</v>
       </c>
       <c r="R23" t="n">
-        <v>0.006232660628544179</v>
+        <v>0.00888898775483472</v>
       </c>
       <c r="S23" t="n">
-        <v>0.006727005829288034</v>
+        <v>0.008019957437438052</v>
       </c>
       <c r="T23" t="n">
-        <v>0.00666149535563955</v>
+        <v>0.00820485278669654</v>
       </c>
       <c r="U23" t="n">
-        <v>0.007250819099781463</v>
+        <v>0.007908231178779528</v>
       </c>
       <c r="V23" t="n">
-        <v>0.006087179164664595</v>
+        <v>0.008564900897102785</v>
       </c>
       <c r="W23" t="n">
-        <v>0.007140409777818685</v>
+        <v>0.008145768370830905</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00666626412663875</v>
+        <v>0.008624061682504819</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.006669123752476989</v>
+        <v>0.008330160173971165</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.005831210217730101</v>
+        <v>0.007774492799611171</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.006759993095972769</v>
+        <v>0.007528622845070682</v>
       </c>
     </row>
   </sheetData>
